--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7672F169-D544-4F54-9BA1-392A5056AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>LP</t>
   </si>
@@ -100,9 +106,6 @@
     <t>LP-045018</t>
   </si>
   <si>
-    <t>LP-0443</t>
-  </si>
-  <si>
     <t>LP-044158</t>
   </si>
   <si>
@@ -131,13 +134,19 @@
   </si>
   <si>
     <t>LP-039712</t>
+  </si>
+  <si>
+    <t>LP-045129</t>
+  </si>
+  <si>
+    <t>LP-044318</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +209,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +261,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -278,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,9 +330,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -518,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -526,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -534,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -542,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -550,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -558,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -574,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -582,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -590,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -598,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -606,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -614,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -622,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -630,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -638,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -646,7 +670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -654,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -662,7 +686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -670,7 +694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -678,7 +702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -686,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -694,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -702,7 +726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -710,91 +734,99 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7672F169-D544-4F54-9BA1-392A5056AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089B0FE-379F-4FB6-8E9D-469B8352B51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>LP</t>
   </si>
@@ -34,6 +37,9 @@
     <t>LP-045813</t>
   </si>
   <si>
+    <t>Encerrado!</t>
+  </si>
+  <si>
     <t>LP-045814</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>LP-045018</t>
   </si>
   <si>
+    <t>LP-044318</t>
+  </si>
+  <si>
     <t>LP-044158</t>
   </si>
   <si>
@@ -137,9 +146,6 @@
   </si>
   <si>
     <t>LP-045129</t>
-  </si>
-  <si>
-    <t>LP-044318</t>
   </si>
 </sst>
 </file>
@@ -157,10 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +264,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -295,7 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,10 +332,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,327 +511,341 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
       <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089B0FE-379F-4FB6-8E9D-469B8352B51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC600B2C-0817-4C29-BB7B-10BF492C42C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -34,10 +34,10 @@
     <t>LP-045666</t>
   </si>
   <si>
+    <t>Encerrado!</t>
+  </si>
+  <si>
     <t>LP-045813</t>
-  </si>
-  <si>
-    <t>Encerrado!</t>
   </si>
   <si>
     <t>LP-045814</t>
@@ -510,13 +510,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -540,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,6 +571,9 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -579,6 +581,9 @@
       </c>
       <c r="B6" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,6 +593,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -596,6 +604,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -604,6 +615,9 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -612,6 +626,9 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -620,6 +637,9 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -628,6 +648,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -636,6 +659,9 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -644,6 +670,9 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -652,6 +681,9 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -660,189 +692,261 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871E331-DA03-48C8-9FF4-D196778528D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49500584-84B4-464C-A339-A7B64BD68979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LP</t>
   </si>
@@ -31,52 +28,85 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-044206</t>
-  </si>
-  <si>
-    <t>Encerrado!</t>
-  </si>
-  <si>
-    <t>LP-044240</t>
-  </si>
-  <si>
-    <t>LP-044242</t>
-  </si>
-  <si>
-    <t>LP-044459</t>
-  </si>
-  <si>
-    <t>LP-044460</t>
-  </si>
-  <si>
-    <t>LP-045063</t>
-  </si>
-  <si>
-    <t>LP-045227</t>
-  </si>
-  <si>
-    <t>LP-045395</t>
-  </si>
-  <si>
-    <t>LP-045593</t>
-  </si>
-  <si>
-    <t>LP-045774</t>
-  </si>
-  <si>
-    <t>LP-045794</t>
-  </si>
-  <si>
-    <t>Compromisso pendente!</t>
-  </si>
-  <si>
-    <t>LP-045965</t>
-  </si>
-  <si>
-    <t>LP-045988</t>
-  </si>
-  <si>
-    <t>LP-046278</t>
+    <t>LP-042681</t>
+  </si>
+  <si>
+    <t>LP-043967</t>
+  </si>
+  <si>
+    <t>LP-044159</t>
+  </si>
+  <si>
+    <t>LP-044184</t>
+  </si>
+  <si>
+    <t>LP-044484</t>
+  </si>
+  <si>
+    <t>LP-045246</t>
+  </si>
+  <si>
+    <t>LP-045247</t>
+  </si>
+  <si>
+    <t>LP-045255</t>
+  </si>
+  <si>
+    <t>LP-045283</t>
+  </si>
+  <si>
+    <t>LP-045323</t>
+  </si>
+  <si>
+    <t>LP-045325</t>
+  </si>
+  <si>
+    <t>LP-045341</t>
+  </si>
+  <si>
+    <t>LP-045504</t>
+  </si>
+  <si>
+    <t>LP-045506</t>
+  </si>
+  <si>
+    <t>LP-045507</t>
+  </si>
+  <si>
+    <t>LP-045510</t>
+  </si>
+  <si>
+    <t>LP-045511</t>
+  </si>
+  <si>
+    <t>LP-045368</t>
+  </si>
+  <si>
+    <t>LP-045812</t>
+  </si>
+  <si>
+    <t>LP-045817</t>
+  </si>
+  <si>
+    <t>LP-045904</t>
+  </si>
+  <si>
+    <t>LP-046049</t>
+  </si>
+  <si>
+    <t>LP-046050</t>
+  </si>
+  <si>
+    <t>LP-046055</t>
+  </si>
+  <si>
+    <t>LP-046639</t>
+  </si>
+  <si>
+    <t>LP-046640</t>
+  </si>
+  <si>
+    <t>LP-045940</t>
   </si>
 </sst>
 </file>
@@ -94,7 +124,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,184 +474,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49500584-84B4-464C-A339-A7B64BD68979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071CAE3-180D-44F3-8ECE-37ABAF8A251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>LP</t>
   </si>
@@ -28,85 +28,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-042681</t>
-  </si>
-  <si>
-    <t>LP-043967</t>
-  </si>
-  <si>
-    <t>LP-044159</t>
-  </si>
-  <si>
-    <t>LP-044184</t>
-  </si>
-  <si>
-    <t>LP-044484</t>
-  </si>
-  <si>
-    <t>LP-045246</t>
-  </si>
-  <si>
-    <t>LP-045247</t>
-  </si>
-  <si>
-    <t>LP-045255</t>
-  </si>
-  <si>
-    <t>LP-045283</t>
-  </si>
-  <si>
-    <t>LP-045323</t>
-  </si>
-  <si>
-    <t>LP-045325</t>
-  </si>
-  <si>
-    <t>LP-045341</t>
-  </si>
-  <si>
-    <t>LP-045504</t>
-  </si>
-  <si>
-    <t>LP-045506</t>
-  </si>
-  <si>
-    <t>LP-045507</t>
-  </si>
-  <si>
-    <t>LP-045510</t>
-  </si>
-  <si>
-    <t>LP-045511</t>
-  </si>
-  <si>
-    <t>LP-045368</t>
-  </si>
-  <si>
-    <t>LP-045812</t>
-  </si>
-  <si>
-    <t>LP-045817</t>
-  </si>
-  <si>
-    <t>LP-045904</t>
-  </si>
-  <si>
-    <t>LP-046049</t>
-  </si>
-  <si>
-    <t>LP-046050</t>
-  </si>
-  <si>
-    <t>LP-046055</t>
-  </si>
-  <si>
-    <t>LP-046639</t>
-  </si>
-  <si>
-    <t>LP-046640</t>
-  </si>
-  <si>
-    <t>LP-045940</t>
+    <t>LP-046189</t>
   </si>
 </sst>
 </file>
@@ -165,9 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -477,7 +402,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,212 +427,82 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071CAE3-180D-44F3-8ECE-37ABAF8A251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A6CAB-4EB3-4569-AF40-D142446B5339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LP</t>
   </si>
@@ -28,7 +28,85 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-046189</t>
+    <t>LP-042681</t>
+  </si>
+  <si>
+    <t>LP-043967</t>
+  </si>
+  <si>
+    <t>LP-044159</t>
+  </si>
+  <si>
+    <t>LP-044184</t>
+  </si>
+  <si>
+    <t>LP-044484</t>
+  </si>
+  <si>
+    <t>LP-045246</t>
+  </si>
+  <si>
+    <t>LP-045247</t>
+  </si>
+  <si>
+    <t>LP-045255</t>
+  </si>
+  <si>
+    <t>LP-045283</t>
+  </si>
+  <si>
+    <t>LP-045323</t>
+  </si>
+  <si>
+    <t>LP-045325</t>
+  </si>
+  <si>
+    <t>LP-045341</t>
+  </si>
+  <si>
+    <t>LP-045504</t>
+  </si>
+  <si>
+    <t>LP-045506</t>
+  </si>
+  <si>
+    <t>LP-045507</t>
+  </si>
+  <si>
+    <t>LP-045510</t>
+  </si>
+  <si>
+    <t>LP-045511</t>
+  </si>
+  <si>
+    <t>LP-045368</t>
+  </si>
+  <si>
+    <t>LP-045812</t>
+  </si>
+  <si>
+    <t>LP-045817</t>
+  </si>
+  <si>
+    <t>LP-045904</t>
+  </si>
+  <si>
+    <t>LP-046049</t>
+  </si>
+  <si>
+    <t>LP-046050</t>
+  </si>
+  <si>
+    <t>LP-046055</t>
+  </si>
+  <si>
+    <t>LP-046639</t>
+  </si>
+  <si>
+    <t>LP-046640</t>
+  </si>
+  <si>
+    <t>LP-045940</t>
   </si>
 </sst>
 </file>
@@ -87,12 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -402,7 +477,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,82 +502,212 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A6CAB-4EB3-4569-AF40-D142446B5339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>LP-042681</t>
-  </si>
-  <si>
-    <t>LP-043967</t>
-  </si>
-  <si>
-    <t>LP-044159</t>
-  </si>
-  <si>
-    <t>LP-044184</t>
-  </si>
-  <si>
-    <t>LP-044484</t>
-  </si>
-  <si>
-    <t>LP-045246</t>
-  </si>
-  <si>
-    <t>LP-045247</t>
-  </si>
-  <si>
-    <t>LP-045255</t>
-  </si>
-  <si>
-    <t>LP-045283</t>
-  </si>
-  <si>
-    <t>LP-045323</t>
-  </si>
-  <si>
-    <t>LP-045325</t>
-  </si>
-  <si>
-    <t>LP-045341</t>
-  </si>
-  <si>
-    <t>LP-045504</t>
-  </si>
-  <si>
-    <t>LP-045506</t>
-  </si>
-  <si>
-    <t>LP-045507</t>
-  </si>
-  <si>
-    <t>LP-045510</t>
-  </si>
-  <si>
-    <t>LP-045511</t>
-  </si>
-  <si>
-    <t>LP-045368</t>
-  </si>
-  <si>
-    <t>LP-045812</t>
-  </si>
-  <si>
-    <t>LP-045817</t>
-  </si>
-  <si>
-    <t>LP-045904</t>
-  </si>
-  <si>
-    <t>LP-046049</t>
-  </si>
-  <si>
-    <t>LP-046050</t>
-  </si>
-  <si>
-    <t>LP-046055</t>
-  </si>
-  <si>
-    <t>LP-046639</t>
-  </si>
-  <si>
-    <t>LP-046640</t>
-  </si>
-  <si>
-    <t>LP-045940</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,50 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,243 +420,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LP-042681</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LP-043967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LP-044159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Compromisso pendente!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LP-044184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LP-044484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LP-045246</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LP-045247</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LP-045255</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LP-045283</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LP-045323</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LP-045325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LP-045341</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LP-045504</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LP-045506</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LP-045507</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LP-045510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LP-045511</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LP-045368</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LP-045812</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LP-045817</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LP-045904</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LP-045940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LP-046049</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LP-046050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LP-046055</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LP-046639</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LP-046640</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -459,7 +459,11 @@
           <t>LP-042681</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -474,7 +474,11 @@
           <t>LP-043967</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -864,7 +864,11 @@
           <t>LP-046002</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -875,7 +879,11 @@
           <t>LP-046046</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -886,7 +894,11 @@
           <t>LP-046068</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -897,7 +909,11 @@
           <t>LP-046103</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -908,7 +924,11 @@
           <t>LP-046117</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -919,7 +939,11 @@
           <t>LP-046118</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -930,7 +954,11 @@
           <t>LP-046157</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -941,7 +969,11 @@
           <t>LP-046190</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -952,7 +984,11 @@
           <t>LP-046115</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -963,7 +999,11 @@
           <t>LP-046224</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -974,7 +1014,11 @@
           <t>LP-046951</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Corrigir código para quando possuir linha de apontamento!</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC1770-3CA5-462B-AFCC-288B6C00D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23670432-4BD6-4C42-B3B6-14B7CA14CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>LP-047442</t>
+  </si>
+  <si>
+    <t>LP-047316</t>
+  </si>
+  <si>
+    <t>LP-040756</t>
+  </si>
+  <si>
+    <t>LP-038472</t>
+  </si>
+  <si>
+    <t>LP-047004</t>
+  </si>
+  <si>
+    <t>LP-110514</t>
+  </si>
+  <si>
+    <t>LP-044304</t>
   </si>
 </sst>
 </file>
@@ -580,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,6 +1182,54 @@
         <v>65</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">LP-043963  </t>
+          <t xml:space="preserve">LP-046667  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,387 +471,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">LP-045105  </t>
+          <t xml:space="preserve">LP-046673  </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045128  </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045264  </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045322  </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045333  </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045345  </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045552  </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045663  </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045751  </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045821  </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045822  </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045823  </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045894  </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-045902  </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046054  </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046114  </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046192  </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046193  </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046201  </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046211  </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046649  </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046658  </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046659  </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046664  </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046667  </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LP-046673  </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Corrigir código para quando possuir linha de apontamento!</t>
         </is>
       </c>
     </row>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">LP-046667  </t>
+          <t>LP-041165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">LP-046673  </t>
+          <t>LP-043629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -479,6 +479,495 @@
           <t>Encerrado!</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LP-044317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LP-044440</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LP-044441</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LP-044788</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LP-044794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LP-045219</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LP-045356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LP-045460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LP-045491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LP-045492</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LP-045714</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LP-045734</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LP-045774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LP-045799</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LP-045850</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LP-045917</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LP-045919</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LP-045934</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LP-046137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LP-046220</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LP-046227</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LP-046230</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LP-046292</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LP-046311</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LP-046374</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LP-046376</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LP-046377</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LP-046378</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LP-046390</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LP-046454</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LP-046476</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LP-046489</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LP-046522</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LP-046528</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LP-046539</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LP-046565</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LP-046604</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LP-046857</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LP-046909</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LP-046989</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LP-047006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LP-047293</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LP-046312</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -549,7 +549,11 @@
           <t>LP-044794</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -560,7 +564,11 @@
           <t>LP-045219</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -571,7 +579,11 @@
           <t>LP-045356</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -582,7 +594,11 @@
           <t>LP-045460</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -593,7 +609,11 @@
           <t>LP-045491</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -604,7 +624,11 @@
           <t>LP-045492</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -615,7 +639,11 @@
           <t>LP-045714</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -626,7 +654,11 @@
           <t>LP-045734</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -637,7 +669,11 @@
           <t>LP-045774</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -648,7 +684,11 @@
           <t>LP-045799</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -659,7 +699,11 @@
           <t>LP-045850</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -670,7 +714,11 @@
           <t>LP-045917</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -681,7 +729,11 @@
           <t>LP-045919</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -692,7 +744,11 @@
           <t>LP-045934</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -703,7 +759,11 @@
           <t>LP-046137</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Possui linhas de compra e apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -714,7 +774,11 @@
           <t>LP-046220</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -725,7 +789,11 @@
           <t>LP-046227</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -736,7 +804,11 @@
           <t>LP-046230</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -747,7 +819,11 @@
           <t>LP-046292</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -758,7 +834,11 @@
           <t>LP-046311</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -769,7 +849,11 @@
           <t>LP-046374</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -780,7 +864,11 @@
           <t>LP-046376</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -791,7 +879,11 @@
           <t>LP-046377</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -802,7 +894,11 @@
           <t>LP-046378</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -813,7 +909,11 @@
           <t>LP-046390</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -824,7 +924,11 @@
           <t>LP-046454</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -835,7 +939,11 @@
           <t>LP-046476</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -846,7 +954,11 @@
           <t>LP-046489</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -857,7 +969,11 @@
           <t>LP-046522</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -868,7 +984,11 @@
           <t>LP-046528</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -879,7 +999,11 @@
           <t>LP-046539</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -890,7 +1014,11 @@
           <t>LP-046565</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -901,7 +1029,11 @@
           <t>LP-046604</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -912,7 +1044,11 @@
           <t>LP-046857</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -923,7 +1059,11 @@
           <t>LP-046909</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -934,7 +1074,11 @@
           <t>LP-046989</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -945,7 +1089,11 @@
           <t>LP-047006</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -956,7 +1104,11 @@
           <t>LP-047293</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -967,7 +1119,11 @@
           <t>LP-046312</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F323A-AB46-41D6-96D6-8EDEA00FEFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3000666-B761-487D-A055-1FFF91926AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>LP</t>
   </si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>LP-041957</t>
+  </si>
+  <si>
+    <t>Encerrado!</t>
   </si>
   <si>
     <t>LP-044481</t>
@@ -82,10 +88,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +223,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,129 +436,171 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3000666-B761-487D-A055-1FFF91926AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>LP</t>
   </si>
@@ -31,53 +22,146 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-041957</t>
-  </si>
-  <si>
-    <t>Encerrado!</t>
-  </si>
-  <si>
-    <t>LP-044481</t>
-  </si>
-  <si>
-    <t>LP-044727</t>
-  </si>
-  <si>
-    <t>LP-044782</t>
-  </si>
-  <si>
-    <t>LP-045311</t>
-  </si>
-  <si>
-    <t>LP-045312</t>
-  </si>
-  <si>
-    <t>LP-045466</t>
-  </si>
-  <si>
-    <t>LP-046017</t>
-  </si>
-  <si>
-    <t>LP-046066</t>
-  </si>
-  <si>
-    <t>LP-046212</t>
-  </si>
-  <si>
-    <t>LP-046663</t>
-  </si>
-  <si>
-    <t>LP-046669</t>
-  </si>
-  <si>
-    <t>LP-047252</t>
+    <t>LP-041145</t>
+  </si>
+  <si>
+    <t>LP-042333</t>
+  </si>
+  <si>
+    <t>LP-043924</t>
+  </si>
+  <si>
+    <t>LP-045348</t>
+  </si>
+  <si>
+    <t>LP-045349</t>
+  </si>
+  <si>
+    <t>LP-045350</t>
+  </si>
+  <si>
+    <t>LP-045351</t>
+  </si>
+  <si>
+    <t>LP-045352</t>
+  </si>
+  <si>
+    <t>LP-045353</t>
+  </si>
+  <si>
+    <t>LP-045824</t>
+  </si>
+  <si>
+    <t>LP-045945</t>
+  </si>
+  <si>
+    <t>LP-045975</t>
+  </si>
+  <si>
+    <t>LP-046080</t>
+  </si>
+  <si>
+    <t>LP-046081</t>
+  </si>
+  <si>
+    <t>LP-046164</t>
+  </si>
+  <si>
+    <t>LP-046165</t>
+  </si>
+  <si>
+    <t>LP-046204</t>
+  </si>
+  <si>
+    <t>LP-046209</t>
+  </si>
+  <si>
+    <t>LP-046210</t>
+  </si>
+  <si>
+    <t>LP-046349</t>
+  </si>
+  <si>
+    <t>LP-046646</t>
+  </si>
+  <si>
+    <t>LP-046650</t>
+  </si>
+  <si>
+    <t>LP-046651</t>
+  </si>
+  <si>
+    <t>LP-046652</t>
+  </si>
+  <si>
+    <t>LP-046653</t>
+  </si>
+  <si>
+    <t>LP-046654</t>
+  </si>
+  <si>
+    <t>LP-046660</t>
+  </si>
+  <si>
+    <t>LP-046671</t>
+  </si>
+  <si>
+    <t>LP-046939</t>
+  </si>
+  <si>
+    <t>LP-047085</t>
+  </si>
+  <si>
+    <t>LP-047087</t>
+  </si>
+  <si>
+    <t>LP-047088</t>
+  </si>
+  <si>
+    <t>LP-047090</t>
+  </si>
+  <si>
+    <t>LP-047100</t>
+  </si>
+  <si>
+    <t>LP-047174</t>
+  </si>
+  <si>
+    <t>LP-047181</t>
+  </si>
+  <si>
+    <t>LP-047182</t>
+  </si>
+  <si>
+    <t>LP-047232</t>
+  </si>
+  <si>
+    <t>LP-047233</t>
+  </si>
+  <si>
+    <t>LP-047242</t>
+  </si>
+  <si>
+    <t>LP-047296</t>
+  </si>
+  <si>
+    <t>LP-047329</t>
+  </si>
+  <si>
+    <t>LP-047337</t>
+  </si>
+  <si>
+    <t>LP-047452</t>
+  </si>
+  <si>
+    <t>LP-047453</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +172,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,14 +224,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -432,175 +511,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -474,7 +474,11 @@
           <t>LP-039679</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -485,7 +489,11 @@
           <t>LP-039802</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -496,7 +504,11 @@
           <t>LP-041458</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -519,7 +519,11 @@
           <t>LP-043707</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -530,7 +534,11 @@
           <t>LP-043894</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -541,7 +549,11 @@
           <t>LP-044708</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -552,7 +564,11 @@
           <t>LP-044750</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -563,7 +579,11 @@
           <t>LP-044805</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -574,7 +594,11 @@
           <t>LP-044836</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -585,7 +609,11 @@
           <t>LP-045487</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -596,7 +624,11 @@
           <t>LP-045489</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -607,7 +639,11 @@
           <t>LP-045834</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -618,7 +654,11 @@
           <t>LP-045875</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,7 +669,11 @@
           <t>LP-045914</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Possui linhas de compra e apontamento!</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -640,7 +684,11 @@
           <t>LP-045933</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -651,7 +699,11 @@
           <t>LP-045943</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -662,7 +714,11 @@
           <t>LP-045972</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -673,7 +729,11 @@
           <t>LP-046008</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -684,7 +744,11 @@
           <t>LP-046035</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -695,7 +759,11 @@
           <t>LP-046073</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -706,7 +774,11 @@
           <t>LP-046236</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -717,7 +789,11 @@
           <t>LP-046405</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -728,7 +804,11 @@
           <t>LP-046411</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -739,7 +819,11 @@
           <t>LP-046434</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LP-039665</t>
+          <t>LP-038957</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LP-039679</t>
+          <t>LP-041062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LP-039802</t>
+          <t>LP-041602</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LP-041458</t>
+          <t>LP-043674</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LP-043707</t>
+          <t>LP-044939</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LP-043894</t>
+          <t>LP-045263</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LP-044708</t>
+          <t>LP-045544</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LP-044750</t>
+          <t>LP-045688</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LP-044805</t>
+          <t>LP-046075</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LP-044836</t>
+          <t>LP-046351</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LP-045487</t>
+          <t>LP-046632</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LP-045489</t>
+          <t>LP-046666</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LP-045834</t>
+          <t>LP-046672</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Encerrado!</t>
+          <t>Compromisso pendente!</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LP-045875</t>
+          <t>LP-046943</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LP-045914</t>
+          <t>LP-046947</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Possui linhas de compra e apontamento!</t>
+          <t>Encerrado!</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LP-045933</t>
+          <t>LP-046949</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LP-045943</t>
+          <t>LP-046950</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LP-045972</t>
+          <t>LP-046954</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LP-046008</t>
+          <t>LP-047178</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LP-046035</t>
+          <t>LP-047180</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LP-046073</t>
+          <t>LP-047196</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LP-046236</t>
+          <t>LP-047514</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -779,436 +779,6 @@
           <t>Encerrado!</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LP-046405</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>LP-046411</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>LP-046434</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>LP-046435</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LP-046460</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LP-046461</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>LP-046464</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>LP-046468</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LP-046573</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>LP-046637</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>LP-046645</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>LP-046850</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>LP-046853</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>LP-046872</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>LP-046873</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>LP-046876</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>LP-046878</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>LP-046897</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LP-046898</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>LP-046911</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>LP-046912</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>LP-047048</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>LP-047058</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>LP-047149</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>LP-047317</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>LP-047368</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>LP-047402</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>LP-047450</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>LP-047567</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>LP-047722</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>LP-047779</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>LP-047811</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>LP-047817</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>LP-047906</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>LP-047929</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>LP-047942</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>LP-047016</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>LP-047119</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LP-038957</t>
+          <t>LP-040780</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LP-041062</t>
+          <t>LP-040881</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,14 +486,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LP-041602</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-041374</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -501,14 +497,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LP-043674</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-041572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -516,14 +508,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LP-044939</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-042393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -531,14 +519,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LP-045263</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-043584</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -546,14 +530,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LP-045544</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-043917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -561,14 +541,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LP-045688</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-004440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -576,14 +552,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LP-046075</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -591,14 +563,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LP-046351</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044439</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -606,14 +574,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LP-046632</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044442</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -621,14 +585,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LP-046666</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -636,14 +596,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LP-046672</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-044568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -651,14 +607,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LP-046943</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044637</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -666,14 +618,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LP-046947</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044709</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -681,14 +629,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LP-046949</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044712</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -696,14 +640,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LP-046950</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-044721</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -711,14 +651,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LP-046954</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -726,14 +662,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LP-047178</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -741,14 +673,10 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LP-047180</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045830</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -756,14 +684,10 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LP-047196</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045872</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -771,14 +695,164 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LP-047514</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045884</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LP-046041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LP-046094</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LP-046245</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LP-046389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LP-046490</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LP-046499</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LP-046501</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LP-046530</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LP-046877</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LP-047543</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LP-047544</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LP-047719</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LP-047805</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LP-045839</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -489,7 +489,11 @@
           <t>LP-041374</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -500,7 +504,11 @@
           <t>LP-041572</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -511,7 +519,11 @@
           <t>LP-042393</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -522,7 +534,11 @@
           <t>LP-043584</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -533,7 +549,11 @@
           <t>LP-043917</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -544,7 +564,11 @@
           <t>LP-004440</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -555,7 +579,11 @@
           <t>LP-044260</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -566,7 +594,11 @@
           <t>LP-044439</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -577,7 +609,11 @@
           <t>LP-044442</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -588,7 +624,11 @@
           <t>LP-044446</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -599,7 +639,11 @@
           <t>LP-044568</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -610,7 +654,11 @@
           <t>LP-044637</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -621,7 +669,11 @@
           <t>LP-044709</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -632,7 +684,11 @@
           <t>LP-044712</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -643,7 +699,11 @@
           <t>LP-044721</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -654,7 +714,11 @@
           <t>LP-045070</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -665,7 +729,11 @@
           <t>LP-045242</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -676,7 +744,11 @@
           <t>LP-045830</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -687,7 +759,11 @@
           <t>LP-045872</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -698,7 +774,11 @@
           <t>LP-045884</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -709,7 +789,11 @@
           <t>LP-046041</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -720,7 +804,11 @@
           <t>LP-046094</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -731,7 +819,11 @@
           <t>LP-046245</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -742,7 +834,11 @@
           <t>LP-046389</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -753,7 +849,11 @@
           <t>LP-046490</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -764,7 +864,11 @@
           <t>LP-046499</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -775,7 +879,11 @@
           <t>LP-046501</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -786,7 +894,11 @@
           <t>LP-046530</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -797,7 +909,11 @@
           <t>LP-046877</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -808,7 +924,11 @@
           <t>LP-047543</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -819,7 +939,11 @@
           <t>LP-047544</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -830,7 +954,11 @@
           <t>LP-047719</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -841,7 +969,11 @@
           <t>LP-047805</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -852,7 +984,11 @@
           <t>LP-045839</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,37 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52437F5-CBE0-43E8-BDDD-E32770D9B729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>LP-042351</t>
+  </si>
+  <si>
+    <t>LP-044650</t>
+  </si>
+  <si>
+    <t>LP-044651</t>
+  </si>
+  <si>
+    <t>LP-045677</t>
+  </si>
+  <si>
+    <t>LP-046155</t>
+  </si>
+  <si>
+    <t>LP-046296</t>
+  </si>
+  <si>
+    <t>LP-047097</t>
+  </si>
+  <si>
+    <t>LP-047098</t>
+  </si>
+  <si>
+    <t>LP-047206</t>
+  </si>
+  <si>
+    <t>LP-047237</t>
+  </si>
+  <si>
+    <t>LP-047238</t>
+  </si>
+  <si>
+    <t>LP-047239</t>
+  </si>
+  <si>
+    <t>LP-047240</t>
+  </si>
+  <si>
+    <t>LP-047241</t>
+  </si>
+  <si>
+    <t>LP-047475</t>
+  </si>
+  <si>
+    <t>LP-047477</t>
+  </si>
+  <si>
+    <t>LP-047782</t>
+  </si>
+  <si>
+    <t>LP-047879</t>
+  </si>
+  <si>
+    <t>LP-047880</t>
+  </si>
+  <si>
+    <t>LP-047881</t>
+  </si>
+  <si>
+    <t>LP-048263</t>
+  </si>
+  <si>
+    <t>LP-048265</t>
+  </si>
+  <si>
+    <t>LP-039661</t>
+  </si>
+  <si>
+    <t>LP-041200</t>
+  </si>
+  <si>
+    <t>LP-041217</t>
+  </si>
+  <si>
+    <t>LP-041229</t>
+  </si>
+  <si>
+    <t>LP-041319</t>
+  </si>
+  <si>
+    <t>LP-044470</t>
+  </si>
+  <si>
+    <t>LP-044659</t>
+  </si>
+  <si>
+    <t>LP-045146</t>
+  </si>
+  <si>
+    <t>LP-045789</t>
+  </si>
+  <si>
+    <t>LP-045977</t>
+  </si>
+  <si>
+    <t>LP-046611</t>
+  </si>
+  <si>
+    <t>LP-046633</t>
+  </si>
+  <si>
+    <t>LP-046855</t>
+  </si>
+  <si>
+    <t>LP-046964</t>
+  </si>
+  <si>
+    <t>LP-046965</t>
+  </si>
+  <si>
+    <t>LP-047220</t>
+  </si>
+  <si>
+    <t>LP-047440</t>
+  </si>
+  <si>
+    <t>LP-047441</t>
+  </si>
+  <si>
+    <t>LP-047638</t>
+  </si>
+  <si>
+    <t>LP-047640</t>
+  </si>
+  <si>
+    <t>LP-047712</t>
+  </si>
+  <si>
+    <t>LP-047745</t>
+  </si>
+  <si>
+    <t>LP-047748</t>
+  </si>
+  <si>
+    <t>LP-047755</t>
+  </si>
+  <si>
+    <t>LP-047757</t>
+  </si>
+  <si>
+    <t>LP-047759</t>
+  </si>
+  <si>
+    <t>LP-047767</t>
+  </si>
+  <si>
+    <t>LP-047958</t>
+  </si>
+  <si>
+    <t>LP-047959</t>
+  </si>
+  <si>
+    <t>LP-048038</t>
+  </si>
+  <si>
+    <t>LP-048039</t>
+  </si>
+  <si>
+    <t>LP-048110</t>
+  </si>
+  <si>
+    <t>LP-048634</t>
+  </si>
+  <si>
+    <t>LP-048672</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +231,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,74 +555,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LP-048431</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LP-048432</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LP</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LP-047114</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52437F5-CBE0-43E8-BDDD-E32770D9B729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEADBC98-6FA8-4F11-BA25-07F9ADDAF274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>LP</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>LP-042351</t>
+  </si>
+  <si>
+    <t>Encerrado!</t>
   </si>
   <si>
     <t>LP-044650</t>
@@ -559,10 +562,13 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -576,280 +582,283 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LP-042351</t>
+          <t>LP-037308</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LP-044650</t>
+          <t>LP-043868</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LP-044651</t>
+          <t>LP-045082</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LP-045677</t>
+          <t>LP-045130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LP-046155</t>
+          <t>LP-045327</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LP-046296</t>
+          <t>LP-045819</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,602 +520,858 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LP-047097</t>
+          <t>LP-045827</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compromisso pendente!</t>
+          <t>Encerrado!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LP-047098</t>
+          <t>LP-045828</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compromisso pendente!</t>
+          <t>Encerrado!</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LP-047206</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045883</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LP-047237</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046067</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LP-047238</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046169</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LP-047239</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046173</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LP-047240</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046176</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LP-047241</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046184</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LP-047475</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046341</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LP-047477</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Possui linhas de compra e apontamento!</t>
-        </is>
-      </c>
+          <t>LP-046662</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LP-047782</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047096</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LP-047879</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-047102</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LP-047880</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-047106</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LP-047881</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-047171</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LP-048263</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-047176</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LP-048265</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-047331</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LP-039661</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047338</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LP-041200</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047451</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LP-041217</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047457</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LP-041229</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047488</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LP-041319</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047490</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LP-044470</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047492</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LP-044659</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047501</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LP-045146</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Compromisso pendente!</t>
-        </is>
-      </c>
+          <t>LP-047504</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LP-045789</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047507</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LP-045977</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047520</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LP-046611</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047528</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LP-046633</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047787</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LP-046855</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047826</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LP-046964</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047865</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LP-046965</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047871</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LP-047220</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047886</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LP-047440</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-047890</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LP-047441</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-048703</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LP-047638</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-048838</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LP-047640</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-040775</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LP-047712</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-041266</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LP-047745</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-043258</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LP-047748</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-043989</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LP-047755</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045183</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LP-047757</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045187</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LP-047759</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-045610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LP-047767</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046343</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LP-047958</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046344</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LP-047959</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046345</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LP-048038</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046603</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LP-048039</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046609</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LP-048110</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046610</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LP-048634</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046612</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LP-048672</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Encerrado!</t>
-        </is>
-      </c>
+          <t>LP-046613</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LP-046806</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LP-046807</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LP-046936</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LP-046941</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LP-047028</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LP-047049</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LP-047169</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LP-047212</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LP-047302</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LP-047303</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LP-047369</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LP-047389</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LP-047525</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LP-047533</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LP-047541</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LP-047737</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LP-047739</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LP-047758</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LP-047764</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LP-047765</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LP-047913</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LP-047916</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>LP-048004</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LP-048016</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LP-048055</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>LP-048056</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LP-048057</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LP-048058</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LP-048059</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>LP-048127</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LP-048134</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LP-048224</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LP-048311</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LP-048312</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LP-048316</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>LP-048318</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>LP-048332</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>LP-048417</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>LP-048501</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>LP-048517</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>LP-048522</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>LP-048533</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LP-048547</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LP-048581</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LP-048616</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>LP-048759</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LP-048771</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>LP-048818</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LP-048857</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LP-048874</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>LP-040879</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>LP-048889</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>LP-048925</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LP-047348</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>LP-047979</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>LP-048537</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6500D85-BE10-4253-BD00-EA27412ED0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC57C2-8232-4E39-888C-E3730D6786BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,90 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>LP</t>
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>LP-043273</t>
-  </si>
-  <si>
-    <t>LP-045293</t>
-  </si>
-  <si>
-    <t>LP-045321</t>
-  </si>
-  <si>
-    <t>LP-045512</t>
-  </si>
-  <si>
-    <t>LP-045682</t>
-  </si>
-  <si>
-    <t>LP-045825</t>
-  </si>
-  <si>
-    <t>LP-046160</t>
-  </si>
-  <si>
-    <t>LP-046182</t>
-  </si>
-  <si>
-    <t>LP-046995</t>
-  </si>
-  <si>
-    <t>LP-047091</t>
-  </si>
-  <si>
-    <t>LP-047093</t>
-  </si>
-  <si>
-    <t>LP-047094</t>
-  </si>
-  <si>
-    <t>LP-047112</t>
-  </si>
-  <si>
-    <t>LP-047246</t>
-  </si>
-  <si>
-    <t>LP-047250</t>
-  </si>
-  <si>
-    <t>LP-047330</t>
-  </si>
-  <si>
-    <t>LP-047339</t>
-  </si>
-  <si>
-    <t>LP-047478</t>
-  </si>
-  <si>
-    <t>LP-047480</t>
-  </si>
-  <si>
-    <t>LP-047481</t>
-  </si>
-  <si>
-    <t>LP-047482</t>
-  </si>
-  <si>
-    <t>LP-047483</t>
-  </si>
-  <si>
-    <t>LP-047484</t>
-  </si>
-  <si>
-    <t>LP-047485</t>
-  </si>
-  <si>
-    <t>LP-047486</t>
-  </si>
-  <si>
-    <t>LP-047487</t>
   </si>
   <si>
     <t>LP-047503</t>
@@ -751,13 +673,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A122"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1242,136 +1167,6 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363F795-3D85-4859-97A3-9FA1E0892E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>LP-043866</t>
-  </si>
-  <si>
-    <t>Compromisso pendente!</t>
-  </si>
-  <si>
-    <t>LP-047940</t>
-  </si>
-  <si>
-    <t>LP-048445</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,49 +420,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LP-111841</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LP-048623</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LP-048299</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LP-048286</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LP-048203</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LP-046987</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LP-048905</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LP-110505</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LP-048084</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LP-047390</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LP-047391</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LP-048400</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LP-048401</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LP-048280</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LP-113048</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LP-048632</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LP-048959</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LP-048826</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LP-048625</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LP-048627</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LP-113069</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LP-111952</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LP não existe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LP-113071</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50AF89-EA25-47E9-B005-E4943C0FA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B7C3A-813E-4C46-8AF0-C691A1F7E96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,132 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>LP</t>
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>LP-043681</t>
-  </si>
-  <si>
-    <t>LP-043683</t>
-  </si>
-  <si>
-    <t>LP-045106</t>
-  </si>
-  <si>
-    <t>LP-045221</t>
-  </si>
-  <si>
-    <t>LP-047165</t>
-  </si>
-  <si>
-    <t>LP-047213</t>
-  </si>
-  <si>
-    <t>LP-047668</t>
-  </si>
-  <si>
-    <t>LP-047669</t>
-  </si>
-  <si>
-    <t>LP-047670</t>
-  </si>
-  <si>
-    <t>LP-047738</t>
-  </si>
-  <si>
-    <t>LP-047851</t>
-  </si>
-  <si>
-    <t>LP-048072</t>
-  </si>
-  <si>
-    <t>LP-048128</t>
-  </si>
-  <si>
-    <t>LP-048131</t>
-  </si>
-  <si>
-    <t>LP-048215</t>
-  </si>
-  <si>
-    <t>LP-048245</t>
-  </si>
-  <si>
-    <t>LP-048284</t>
-  </si>
-  <si>
-    <t>LP-048417</t>
-  </si>
-  <si>
-    <t>LP-048500</t>
-  </si>
-  <si>
-    <t>LP-048837</t>
-  </si>
-  <si>
-    <t>LP-048911</t>
-  </si>
-  <si>
-    <t>LP-049111</t>
-  </si>
-  <si>
-    <t>LP-049270</t>
-  </si>
-  <si>
-    <t>LP-049308</t>
-  </si>
-  <si>
-    <t>LP-049560</t>
-  </si>
-  <si>
-    <t>LP-049566</t>
-  </si>
-  <si>
-    <t>LP-049589</t>
-  </si>
-  <si>
-    <t>LP-049591</t>
-  </si>
-  <si>
-    <t>LP-049593</t>
-  </si>
-  <si>
-    <t>LP-049632</t>
-  </si>
-  <si>
-    <t>LP-049633</t>
-  </si>
-  <si>
-    <t>LP-049753</t>
-  </si>
-  <si>
-    <t>LP-033830</t>
-  </si>
-  <si>
-    <t>LP-046084</t>
-  </si>
-  <si>
-    <t>LP-046162</t>
-  </si>
-  <si>
-    <t>LP-046172</t>
-  </si>
-  <si>
-    <t>LP-046232</t>
-  </si>
-  <si>
-    <t>LP-046339</t>
-  </si>
-  <si>
-    <t>LP-046350</t>
-  </si>
-  <si>
-    <t>LP-047095</t>
   </si>
   <si>
     <t>LP-047259</t>
@@ -571,15 +451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -694,206 +572,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,117 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B7C3A-813E-4C46-8AF0-C691A1F7E96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>LP-047259</t>
-  </si>
-  <si>
-    <t>LP-047336</t>
-  </si>
-  <si>
-    <t>LP-048140</t>
-  </si>
-  <si>
-    <t>LP-048155</t>
-  </si>
-  <si>
-    <t>LP-048158</t>
-  </si>
-  <si>
-    <t>LP-048261</t>
-  </si>
-  <si>
-    <t>LP-048264</t>
-  </si>
-  <si>
-    <t>LP-048267</t>
-  </si>
-  <si>
-    <t>LP-048268</t>
-  </si>
-  <si>
-    <t>LP-048270</t>
-  </si>
-  <si>
-    <t>LP-048366</t>
-  </si>
-  <si>
-    <t>LP-048369</t>
-  </si>
-  <si>
-    <t>LP-048709</t>
-  </si>
-  <si>
-    <t>LP-048715</t>
-  </si>
-  <si>
-    <t>LP-049029</t>
-  </si>
-  <si>
-    <t>LP-049030</t>
-  </si>
-  <si>
-    <t>LP-049031</t>
-  </si>
-  <si>
-    <t>LP-049097</t>
-  </si>
-  <si>
-    <t>LP-049218</t>
-  </si>
-  <si>
-    <t>LP-049298</t>
-  </si>
-  <si>
-    <t>LP-049624</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,126 +420,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LP-047259</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LP-047336</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LP-048140</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LP-048155</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LP-048158</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LP-048261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LP-048264</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LP-048267</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LP-048268</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LP-048270</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LP-048366</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LP-048369</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LP-048709</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LP-048715</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LP-049029</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LP-049030</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LP-049031</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LP-049097</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LP-049218</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LP-049298</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Compromisso pendente!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LP-049624</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C4BFD2-51B8-40E5-A8CE-9DB4FE2CAE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79A323-B7F0-4D7C-BF33-A87AD9449C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>LP</t>
   </si>
@@ -28,34 +28,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-048136</t>
+    <t>LP-049120</t>
+  </si>
+  <si>
+    <t>Compromisso pendente!</t>
+  </si>
+  <si>
+    <t>LP-047292</t>
   </si>
   <si>
     <t>Possui linhas de compra e apontamento!</t>
   </si>
   <si>
-    <t>LP-049093</t>
-  </si>
-  <si>
-    <t>Compromisso pendente!</t>
-  </si>
-  <si>
-    <t>LP-049293</t>
-  </si>
-  <si>
-    <t>LP-049297</t>
-  </si>
-  <si>
-    <t>LP-049300</t>
-  </si>
-  <si>
-    <t>LP-048935</t>
-  </si>
-  <si>
-    <t>LP-049419</t>
-  </si>
-  <si>
-    <t>LP-049420</t>
+    <t>LP-049245</t>
+  </si>
+  <si>
+    <t>LP-049793</t>
   </si>
 </sst>
 </file>
@@ -418,9 +406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -457,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,39 +455,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79A323-B7F0-4D7C-BF33-A87AD9449C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9575F272-627A-4399-82BE-7C74EA613FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>LP</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-049120</t>
+    <t>LP-047185</t>
+  </si>
+  <si>
+    <t>Possui linhas de compra e apontamento!</t>
+  </si>
+  <si>
+    <t>LP-048980</t>
   </si>
   <si>
     <t>Compromisso pendente!</t>
   </si>
   <si>
-    <t>LP-047292</t>
-  </si>
-  <si>
-    <t>Possui linhas de compra e apontamento!</t>
-  </si>
-  <si>
-    <t>LP-049245</t>
-  </si>
-  <si>
-    <t>LP-049793</t>
+    <t>LP-049043</t>
   </si>
 </sst>
 </file>
@@ -406,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,15 +444,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs.xlsx
+++ b/Open-LPs.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9575F272-627A-4399-82BE-7C74EA613FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>LP-047185</t>
-  </si>
-  <si>
-    <t>Possui linhas de compra e apontamento!</t>
-  </si>
-  <si>
-    <t>LP-048980</t>
-  </si>
-  <si>
-    <t>Compromisso pendente!</t>
-  </si>
-  <si>
-    <t>LP-049043</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,49 +420,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LP-048670</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Compromisso pendente!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LP-048262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LP-048973</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LP-048974</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LP-048987</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LP-048998</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LP-049003</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LP-049168</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LP-049179</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LP-049312</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LP-049332</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LP-049457</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LP-049473</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LP-049501</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LP-049658</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LP-049757</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LP-049769</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LP-049861</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LP-049942</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Encerrado!</t>
+        </is>
       </c>
     </row>
   </sheetData>
